--- a/hourly datasets/cap_gen_year12final.xlsx
+++ b/hourly datasets/cap_gen_year12final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.104753198204774</v>
+        <v>0.09494372744984057</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003412081422144937</v>
+        <v>0.00295370374963417</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002271601561681532</v>
+        <v>0.0007024846405599131</v>
       </c>
       <c r="D3" t="n">
-        <v>1.797293555165012</v>
+        <v>1.386936168491154</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1745447835622547</v>
+        <v>0.06648140927507246</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.001040252517001846</v>
+        <v>0.001576855029932104</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007864415361291724</v>
+        <v>0.004330552469336235</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1081652796269189</v>
+        <v>0.09789743119947475</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004950716914567984</v>
+        <v>0.005014842560012558</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003911463530478874</v>
+        <v>0.0009883167805282823</v>
       </c>
       <c r="D4" t="n">
-        <v>3.614006171246863</v>
+        <v>6.026337984629561</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1511068746479204</v>
+        <v>0.07144091838492561</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.002715735835766121</v>
+        <v>0.003077771364769242</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01261716966490209</v>
+        <v>0.006951913755255874</v>
       </c>
       <c r="H4" t="n">
-        <v>0.109703915119342</v>
+        <v>0.09995857000985313</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00772171313907975</v>
+        <v>0.02968309568782823</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00615823211549979</v>
+        <v>0.0052844943183773</v>
       </c>
       <c r="D5" t="n">
-        <v>2.250097128518246</v>
+        <v>8.249544288380871</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1797512987461018</v>
+        <v>0.07353830048767952</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.004348385032933181</v>
+        <v>0.01932564432960181</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01979181131109268</v>
+        <v>0.04004054704605465</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1124749113438537</v>
+        <v>0.1246268231376688</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002944360617265238</v>
+        <v>0.01411365635009341</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003588721621250011</v>
+        <v>0.004062603941583091</v>
       </c>
       <c r="D6" t="n">
-        <v>0.868648388521411</v>
+        <v>5.474285235342705</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06997324155152901</v>
+        <v>0.1215206144636516</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.004089518861641806</v>
+        <v>0.006151072678357638</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009978240096172281</v>
+        <v>0.02207624002182917</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1076975588220392</v>
+        <v>0.109057383799934</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003126454301773265</v>
+        <v>0.0137524206252949</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00279169469353119</v>
+        <v>0.007369592514327578</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8702791748452039</v>
+        <v>5.91177877972546</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04163736441748206</v>
+        <v>0.09175672192873137</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.002345250299122632</v>
+        <v>-0.0006917566528382076</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00859815890266916</v>
+        <v>0.02819659790342801</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1078796525065472</v>
+        <v>0.1086961480751355</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.005654532751169847</v>
+        <v>0.01504664014136512</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002618369498115735</v>
+        <v>0.005026885048022759</v>
       </c>
       <c r="D8" t="n">
-        <v>0.654393852630259</v>
+        <v>5.014580624175117</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02695244696416753</v>
+        <v>0.0755151328422265</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0005225504007369602</v>
+        <v>0.005194101883118216</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01078651510160273</v>
+        <v>0.02489917839961202</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1104077309559438</v>
+        <v>0.1099903675912057</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007562147503910127</v>
+        <v>0.01411306213272985</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002257015337244878</v>
+        <v>0.001729766504107046</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2246961330018558</v>
+        <v>4.171840469680987</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01372497533916482</v>
+        <v>0.06008115026682132</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003138417939146228</v>
+        <v>0.01072277229746749</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01198587706867403</v>
+        <v>0.01750335196799221</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1123153457086841</v>
+        <v>0.1090567895825704</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.104753198204774</v>
+        <v>-0.09494372744984057</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001606201166947822</v>
+        <v>0.000466672812801438</v>
       </c>
       <c r="D10" t="n">
-        <v>-103.6778906420398</v>
+        <v>-217.8179362130637</v>
       </c>
       <c r="E10" t="n">
-        <v>8.914490340099666e-11</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1079013506985922</v>
+        <v>-0.09585839214829744</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1016050457109556</v>
+        <v>-0.09402906275138369</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04471686271714505</v>
+        <v>-0.04295641648383502</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001711093571421359</v>
+        <v>0.0005041597258985286</v>
       </c>
       <c r="D11" t="n">
-        <v>-36.32811887150824</v>
+        <v>-88.69414230081276</v>
       </c>
       <c r="E11" t="n">
-        <v>0.005716012885329251</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04807060400978645</v>
+        <v>-0.0439445544186691</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04136312142450369</v>
+        <v>-0.04196827854900095</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06003633548762891</v>
+        <v>0.05198731096600556</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03470487253977469</v>
+        <v>-0.03370071030116659</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001656031846514846</v>
+        <v>0.0004911045683600219</v>
       </c>
       <c r="D12" t="n">
-        <v>-30.62562903327091</v>
+        <v>-71.94872139639322</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01289083985195583</v>
+        <v>7.503291435639763e-243</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03795069315952978</v>
+        <v>-0.03466326051081057</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03145905192001958</v>
+        <v>-0.0327381600915226</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07004832566499927</v>
+        <v>0.06124301714867399</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03319668129161393</v>
+        <v>-0.03086050529900056</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001656387774466576</v>
+        <v>0.000493229948543745</v>
       </c>
       <c r="D13" t="n">
-        <v>-28.62944971503277</v>
+        <v>-64.65286474036544</v>
       </c>
       <c r="E13" t="n">
-        <v>0.009436985249509299</v>
+        <v>2.141645923395036e-82</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0364431998649047</v>
+        <v>-0.03182722120287207</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02995016271832319</v>
+        <v>-0.02989378939512906</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07155651691316003</v>
+        <v>0.06408322215084</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0267905340473923</v>
+        <v>-0.02542508167357629</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001629679216143105</v>
+        <v>0.0004814589471612722</v>
       </c>
       <c r="D14" t="n">
-        <v>-23.93518907866425</v>
+        <v>-55.27048763482643</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02333438241618071</v>
+        <v>1.238011841610718e-25</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02998470407571013</v>
+        <v>-0.02636872675208696</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02359636401907442</v>
+        <v>-0.02448143659506562</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07796266415738168</v>
+        <v>0.06951864577626428</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02306162604984722</v>
+        <v>-0.02167993985317307</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001622304137674231</v>
+        <v>0.0004766972168157197</v>
       </c>
       <c r="D15" t="n">
-        <v>-20.68475202916169</v>
+        <v>-47.76031884152425</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01448523135845728</v>
+        <v>1.109814012445849e-76</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02624134095494203</v>
+        <v>-0.02261425208032905</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01988191114475239</v>
+        <v>-0.02074562762601711</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08169157215492676</v>
+        <v>0.0732637875966675</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02212692819019735</v>
+        <v>-0.02066151675137504</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001618723571320713</v>
+        <v>0.000473535197716213</v>
       </c>
       <c r="D16" t="n">
-        <v>-20.88446835047022</v>
+        <v>-46.88009775912229</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02090179685676583</v>
+        <v>2.502583367376303e-34</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02529962537182832</v>
+        <v>-0.0215896315167294</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01895423100856639</v>
+        <v>-0.01973340198602067</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08262627001457662</v>
+        <v>0.07428221069846552</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0217257910268225</v>
+        <v>-0.01947143362493723</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001631890141874642</v>
+        <v>0.0004746600227375002</v>
       </c>
       <c r="D17" t="n">
-        <v>-20.16271981594265</v>
+        <v>-44.45756753989649</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03172276008004692</v>
+        <v>1.461036229870701e-26</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02492429444685429</v>
+        <v>-0.02040175300972089</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01852728760679071</v>
+        <v>-0.01854111424015355</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08302740717795146</v>
+        <v>0.07547229382490334</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01939721911472915</v>
+        <v>-0.01793574536179926</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001646560421252589</v>
+        <v>0.0004845511315064013</v>
       </c>
       <c r="D18" t="n">
-        <v>-17.94465739440482</v>
+        <v>-39.6155085352211</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0345884202479512</v>
+        <v>1.631851749212731e-30</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02262447625534555</v>
+        <v>-0.01888545102777163</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01616996197411274</v>
+        <v>-0.01698603969582689</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08535597909004482</v>
+        <v>0.07700798208804131</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01557434611118323</v>
+        <v>-0.01421563431398322</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001654061700770651</v>
+        <v>0.0004802234045627498</v>
       </c>
       <c r="D19" t="n">
-        <v>-14.67933355592898</v>
+        <v>-31.92047868603346</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04314949303916725</v>
+        <v>2.094883394258601e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01881630602266868</v>
+        <v>-0.01515685776099948</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01233238619969778</v>
+        <v>-0.01327441086696696</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08917885209359075</v>
+        <v>0.08072809313585735</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01150085786792204</v>
+        <v>-0.01094263605973822</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001679398815805458</v>
+        <v>0.0004878742183757785</v>
       </c>
       <c r="D20" t="n">
-        <v>-10.41396274902664</v>
+        <v>-23.99415343854259</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04184780452925273</v>
+        <v>0.03009225165862738</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01479247874726073</v>
+        <v>-0.01189885486452596</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.008209236988583371</v>
+        <v>-0.009986417254950482</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09325234033685192</v>
+        <v>0.08400109139010235</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.008620181931400303</v>
+        <v>-0.008346704467281104</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001684113422794634</v>
+        <v>0.0004867309044120779</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.779953073464307</v>
+        <v>-17.25885500251031</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1021303582372606</v>
+        <v>9.215290122077e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01192104335411544</v>
+        <v>-0.009300682396549239</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.005319320508685172</v>
+        <v>-0.007392726538012973</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09613301627337366</v>
+        <v>0.08659702298255947</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006566019881259417</v>
+        <v>-0.006397042984283123</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001674944577784569</v>
+        <v>0.0004827943746424578</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.936798086126405</v>
+        <v>-13.52086962859235</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06052217881707533</v>
+        <v>0.01178590591122428</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.009848909971850898</v>
+        <v>-0.007343305432646333</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.003283129790667941</v>
+        <v>-0.005450780535919912</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09818717832351455</v>
+        <v>0.08854668446555745</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005718727240617265</v>
+        <v>-0.005569446015615608</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001687248298966832</v>
+        <v>0.0004801046588001474</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.947319482209721</v>
+        <v>-12.09027599068665</v>
       </c>
       <c r="E23" t="n">
-        <v>0.09034548785941719</v>
+        <v>0.1049664832985976</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.009025732695967377</v>
+        <v>-0.006510436695921423</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.002411721785267151</v>
+        <v>-0.004628455335309792</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0990344709641567</v>
+        <v>0.08937428143422496</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004113775521231716</v>
+        <v>-0.004927489255277791</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001738028360651549</v>
+        <v>0.0004842968945785082</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.787011296737212</v>
+        <v>-10.85651304669801</v>
       </c>
       <c r="E24" t="n">
-        <v>0.07752927623201311</v>
+        <v>0.05488916140314968</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.007520309135901296</v>
+        <v>-0.005876696588532838</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0007072419065621318</v>
+        <v>-0.003978281922022745</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1006394226835423</v>
+        <v>0.09001623819456278</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.00230707766544376</v>
+        <v>-0.002885749243222201</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001782309834552625</v>
+        <v>0.0004796543975472105</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.661654447328754</v>
+        <v>-6.268184391985406</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1422077890093492</v>
+        <v>0.05126048001173619</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.005800403226450412</v>
+        <v>-0.003825857415215332</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001186247895562893</v>
+        <v>-0.00194564107122907</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1024461205393302</v>
+        <v>0.09205797820661837</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01502003274632411</v>
+        <v>0.0199138480834419</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0009033662819121118</v>
+        <v>0.001053611888110036</v>
       </c>
       <c r="D26" t="n">
-        <v>3.920104612093505</v>
+        <v>14.17739535684032</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02261744505248828</v>
+        <v>0.07490973513595382</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01324944008823904</v>
+        <v>0.01784880049504293</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01679062540440919</v>
+        <v>0.02197889567184086</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1197732309510981</v>
+        <v>0.1148575755332825</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year12final.xlsx
+++ b/hourly datasets/cap_gen_year12final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.09494372744984057</v>
+        <v>0.09589847232719688</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00295370374963417</v>
+        <v>0.002892296902384941</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007024846405599131</v>
+        <v>0.0007309640122423739</v>
       </c>
       <c r="D3" t="n">
-        <v>1.386936168491154</v>
+        <v>2.119510229185873</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06648140927507246</v>
+        <v>0.04081265077329836</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001576855029932104</v>
+        <v>0.001459629464713768</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004330552469336235</v>
+        <v>0.004324964340056113</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09789743119947475</v>
+        <v>0.09879076922958183</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005014842560012558</v>
+        <v>0.006540562408971376</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009883167805282823</v>
+        <v>0.0009714235695068484</v>
       </c>
       <c r="D4" t="n">
-        <v>6.026337984629561</v>
+        <v>6.829951874222828</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07144091838492561</v>
+        <v>0.05391386306933109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003077771364769242</v>
+        <v>0.00463660143710613</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006951913755255874</v>
+        <v>0.008444523380836623</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09995857000985313</v>
+        <v>0.1024390347361682</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02968309568782823</v>
+        <v>0.02506420787951731</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0052844943183773</v>
+        <v>0.004231365018345919</v>
       </c>
       <c r="D5" t="n">
-        <v>8.249544288380871</v>
+        <v>8.02531044127694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07353830048767952</v>
+        <v>0.03947047343326009</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01932564432960181</v>
+        <v>0.0167708589770832</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04004054704605465</v>
+        <v>0.03335755678195143</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1246268231376688</v>
+        <v>0.1209626802067142</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01411365635009341</v>
+        <v>0.002468419048733221</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004062603941583091</v>
+        <v>0.003001166588694332</v>
       </c>
       <c r="D6" t="n">
-        <v>5.474285235342705</v>
+        <v>2.850924319081606</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1215206144636516</v>
+        <v>0.1896223966068026</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006151072678357638</v>
+        <v>-0.003413780441048579</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02207624002182917</v>
+        <v>0.00835061853851502</v>
       </c>
       <c r="H6" t="n">
-        <v>0.109057383799934</v>
+        <v>0.0983668913759301</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0137524206252949</v>
+        <v>0.0003800660605259997</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007369592514327578</v>
+        <v>0.003415268646142019</v>
       </c>
       <c r="D7" t="n">
-        <v>5.91177877972546</v>
+        <v>2.408845183560016</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09175672192873137</v>
+        <v>0.768611059539052</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0006917566528382076</v>
+        <v>-0.005537930211874668</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02819659790342801</v>
+        <v>0.005200750240897778</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1086961480751355</v>
+        <v>0.09627853838772288</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01504664014136512</v>
+        <v>-7.330738539887671e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005026885048022759</v>
+        <v>0.002289393049119048</v>
       </c>
       <c r="D8" t="n">
-        <v>5.014580624175117</v>
+        <v>1.999700683206785</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0755151328422265</v>
+        <v>0.3299972493335837</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005194101883118216</v>
+        <v>-0.004060851238983339</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02489917839961202</v>
+        <v>0.003470061861082516</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1099903675912057</v>
+        <v>0.09582516494179801</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01411306213272985</v>
+        <v>-0.002179844753573647</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001729766504107046</v>
+        <v>0.001367257130214687</v>
       </c>
       <c r="D9" t="n">
-        <v>4.171840469680987</v>
+        <v>0.6344214477040333</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06008115026682132</v>
+        <v>-0.3790421731496668</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01072277229746749</v>
+        <v>-0.005002168979788587</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01750335196799221</v>
+        <v>0.001468979256594814</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1090567895825704</v>
+        <v>0.09371862757362323</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.09494372744984057</v>
+        <v>-0.09589847232719688</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000466672812801438</v>
+        <v>0.0004631850770728796</v>
       </c>
       <c r="D10" t="n">
-        <v>-217.8179362130637</v>
+        <v>-223.1524664610776</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09585839214829744</v>
+        <v>-0.09680630117738084</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09402906275138369</v>
+        <v>-0.0949906434770129</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04295641648383502</v>
+        <v>-0.04341201847968382</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005041597258985286</v>
+        <v>0.0005007995192187966</v>
       </c>
       <c r="D11" t="n">
-        <v>-88.69414230081276</v>
+        <v>-91.84604723745579</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.257930992196466e-243</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0439445544186691</v>
+        <v>-0.04439357053005199</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04196827854900095</v>
+        <v>-0.04243046642931565</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05198731096600556</v>
+        <v>0.05248645384751306</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03370071030116659</v>
+        <v>-0.03312313646628779</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004911045683600219</v>
+        <v>0.0004888101424343513</v>
       </c>
       <c r="D12" t="n">
-        <v>-71.94872139639322</v>
+        <v>-72.05160362472481</v>
       </c>
       <c r="E12" t="n">
-        <v>7.503291435639763e-243</v>
+        <v>1.888148574326033e-293</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03466326051081057</v>
+        <v>-0.03408118968720424</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0327381600915226</v>
+        <v>-0.03216508324537134</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06124301714867399</v>
+        <v>0.06277533586090908</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03086050529900056</v>
+        <v>-0.03030271242742274</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000493229948543745</v>
+        <v>0.0004878387327866796</v>
       </c>
       <c r="D13" t="n">
-        <v>-64.65286474036544</v>
+        <v>-65.58081945864086</v>
       </c>
       <c r="E13" t="n">
-        <v>2.141645923395036e-82</v>
+        <v>3.234846397386062e-144</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03182722120287207</v>
+        <v>-0.03125886171624388</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02989378939512906</v>
+        <v>-0.02934656313860159</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06408322215084</v>
+        <v>0.06559575989977415</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02542508167357629</v>
+        <v>-0.02468591595132525</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0004814589471612722</v>
+        <v>0.0004759464136464608</v>
       </c>
       <c r="D14" t="n">
-        <v>-55.27048763482643</v>
+        <v>-55.99702435031986</v>
       </c>
       <c r="E14" t="n">
-        <v>1.238011841610718e-25</v>
+        <v>1.87728150131311e-54</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02636872675208696</v>
+        <v>-0.02561875663858492</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02448143659506562</v>
+        <v>-0.02375307526406557</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06951864577626428</v>
+        <v>0.07121255637587164</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02167993985317307</v>
+        <v>-0.02100196914947858</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004766972168157197</v>
+        <v>0.0004722914869072872</v>
       </c>
       <c r="D15" t="n">
-        <v>-47.76031884152425</v>
+        <v>-48.27940255172481</v>
       </c>
       <c r="E15" t="n">
-        <v>1.109814012445849e-76</v>
+        <v>9.524340622430001e-65</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02261425208032905</v>
+        <v>-0.02192764628616428</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02074562762601711</v>
+        <v>-0.02007629201279287</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0732637875966675</v>
+        <v>0.0748965031777183</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02066151675137504</v>
+        <v>-0.02006256085700356</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000473535197716213</v>
+        <v>0.0004703605107896804</v>
       </c>
       <c r="D16" t="n">
-        <v>-46.88009775912229</v>
+        <v>-47.22878225634076</v>
       </c>
       <c r="E16" t="n">
-        <v>2.502583367376303e-34</v>
+        <v>2.586097575809235e-18</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0215896315167294</v>
+        <v>-0.02098445334147694</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01973340198602067</v>
+        <v>-0.01914066837253018</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07428221069846552</v>
+        <v>0.07583591147019332</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01947143362493723</v>
+        <v>-0.01879881716756133</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004746600227375002</v>
+        <v>0.0004726584291454472</v>
       </c>
       <c r="D17" t="n">
-        <v>-44.45756753989649</v>
+        <v>-44.40983608187513</v>
       </c>
       <c r="E17" t="n">
-        <v>1.461036229870701e-26</v>
+        <v>4.395707064705121e-46</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02040175300972089</v>
+        <v>-0.01972521350458829</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01854111424015355</v>
+        <v>-0.01787242083053436</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07547229382490334</v>
+        <v>0.07709965515963554</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01793574536179926</v>
+        <v>-0.01690527419325701</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004845511315064013</v>
+        <v>0.0004799855730107717</v>
       </c>
       <c r="D18" t="n">
-        <v>-39.6155085352211</v>
+        <v>-39.21297804459418</v>
       </c>
       <c r="E18" t="n">
-        <v>1.631851749212731e-30</v>
+        <v>1.621215354178795e-28</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01888545102777163</v>
+        <v>-0.01784603151463163</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01698603969582689</v>
+        <v>-0.01596451687188239</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07700798208804131</v>
+        <v>0.07899319813393987</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01421563431398322</v>
+        <v>-0.01361158505365191</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004802234045627498</v>
+        <v>0.0004756077908618997</v>
       </c>
       <c r="D19" t="n">
-        <v>-31.92047868603346</v>
+        <v>-32.11026258708581</v>
       </c>
       <c r="E19" t="n">
-        <v>2.094883394258601e-07</v>
+        <v>4.700129516771056e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01515685776099948</v>
+        <v>-0.01454376203817228</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01327441086696696</v>
+        <v>-0.01267940806913154</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08072809313585735</v>
+        <v>0.08228688727354497</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01094263605973822</v>
+        <v>-0.01043426412603559</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004878742183757785</v>
+        <v>0.0004833044515606354</v>
       </c>
       <c r="D20" t="n">
-        <v>-23.99415343854259</v>
+        <v>-24.25188981364749</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03009225165862738</v>
+        <v>0.03184870715949651</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01189885486452596</v>
+        <v>-0.01138152632631575</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.009986417254950482</v>
+        <v>-0.009487001925755415</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08400109139010235</v>
+        <v>0.0854642082011613</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.008346704467281104</v>
+        <v>-0.00771378512303368</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004867309044120779</v>
+        <v>0.0004838903909951675</v>
       </c>
       <c r="D21" t="n">
-        <v>-17.25885500251031</v>
+        <v>-17.11654053446872</v>
       </c>
       <c r="E21" t="n">
-        <v>9.215290122077e-06</v>
+        <v>0.004164459081777166</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.009300682396549239</v>
+        <v>-0.008662195731921483</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.007392726538012973</v>
+        <v>-0.006765374514145878</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08659702298255947</v>
+        <v>0.0881846872041632</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006397042984283123</v>
+        <v>-0.005899409255081439</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004827943746424578</v>
+        <v>0.0004798083891054597</v>
       </c>
       <c r="D22" t="n">
-        <v>-13.52086962859235</v>
+        <v>-13.58127194258296</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01178590591122428</v>
+        <v>0.007118197532685656</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.007343305432646333</v>
+        <v>-0.006839819262211413</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.005450780535919912</v>
+        <v>-0.004958999247951466</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08854668446555745</v>
+        <v>0.08999906307211544</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005569446015615608</v>
+        <v>-0.00511857925229642</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004801046588001474</v>
+        <v>0.0004781181950267194</v>
       </c>
       <c r="D23" t="n">
-        <v>-12.09027599068665</v>
+        <v>-12.15442067550734</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1049664832985976</v>
+        <v>0.09334842533594039</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.006510436695921423</v>
+        <v>-0.006055676525775095</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.004628455335309792</v>
+        <v>-0.004181481978817746</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08937428143422496</v>
+        <v>0.09077989307490046</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004927489255277791</v>
+        <v>-0.004441948453822358</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004842968945785082</v>
+        <v>0.0004839167496603478</v>
       </c>
       <c r="D24" t="n">
-        <v>-10.85651304669801</v>
+        <v>-10.64523979980288</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05488916140314968</v>
+        <v>0.04663294621268393</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.005876696588532838</v>
+        <v>-0.005390410716412069</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.003978281922022745</v>
+        <v>-0.003493486191232647</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09001623819456278</v>
+        <v>0.09145652387337452</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002885749243222201</v>
+        <v>-0.00265646413883177</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004796543975472105</v>
+        <v>0.000476812160105868</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.268184391985406</v>
+        <v>-6.665345732630927</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05126048001173619</v>
+        <v>0.1239164887065617</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.003825857415215332</v>
+        <v>-0.003591001608263063</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.00194564107122907</v>
+        <v>-0.001721926669400477</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09205797820661837</v>
+        <v>0.0932420081883651</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0199138480834419</v>
+        <v>0.001772872344983067</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001053611888110036</v>
+        <v>0.00143635683601294</v>
       </c>
       <c r="D26" t="n">
-        <v>14.17739535684032</v>
+        <v>5.51083243358654</v>
       </c>
       <c r="E26" t="n">
-        <v>0.07490973513595382</v>
+        <v>0.07015064824724065</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01784880049504293</v>
+        <v>0.0543386315682689</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02197889567184086</v>
+        <v>0.003793182155717222</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1148575755332825</v>
+        <v>0.09767134467217994</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year12final.xlsx
+++ b/hourly datasets/cap_gen_year12final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,593 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.09589847232719688</v>
+        <v>0.1339630100802622</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002892296902384941</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0007309640122423739</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.119510229185873</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.04081265077329836</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.001459629464713768</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.004324964340056113</v>
-      </c>
+        <v>0.1043864451676607</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.09879076922958183</v>
+        <v>0.2383494552479229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006540562408971376</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0009714235695068484</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.829951874222828</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.05391386306933109</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00463660143710613</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.008444523380836623</v>
-      </c>
+        <v>0.09206785914686813</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1024390347361682</v>
+        <v>0.2260308692271303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02506420787951731</v>
+        <v>0.06523070413562645</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004231365018345919</v>
+        <v>0.003371688560082255</v>
       </c>
       <c r="D5" t="n">
-        <v>8.02531044127694</v>
+        <v>15.59212947034704</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03947047343326009</v>
+        <v>0.0346063459715664</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0167708589770832</v>
+        <v>0.0585954664797213</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03335755678195143</v>
+        <v>0.07186594179153039</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1209626802067142</v>
+        <v>0.1991937142158887</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002468419048733221</v>
+        <v>0.08763240389957684</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003001166588694332</v>
+        <v>0.0103892293552767</v>
       </c>
       <c r="D6" t="n">
-        <v>2.850924319081606</v>
+        <v>9.866346701215521</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1896223966068026</v>
+        <v>0.006831243935838892</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.003413780441048579</v>
+        <v>0.06709519040243921</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00835061853851502</v>
+        <v>0.108169617396719</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0983668913759301</v>
+        <v>0.2215954139798391</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0003800660605259997</v>
+        <v>0.05083716370369227</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003415268646142019</v>
+        <v>0.001206357970606904</v>
       </c>
       <c r="D7" t="n">
-        <v>2.408845183560016</v>
+        <v>9.183134418856</v>
       </c>
       <c r="E7" t="n">
-        <v>0.768611059539052</v>
+        <v>0.001746689095505594</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.005537930211874668</v>
+        <v>0.04847150688749544</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005200750240897778</v>
+        <v>0.05320282051989046</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09627853838772288</v>
+        <v>0.1848001737839545</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.330738539887671e-05</v>
+        <v>0.00382269978655249</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002289393049119048</v>
+        <v>0.0002873949275871252</v>
       </c>
       <c r="D8" t="n">
-        <v>1.999700683206785</v>
+        <v>0.6195692099356119</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3299972493335837</v>
+        <v>0.001369858442015861</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.004060851238983339</v>
+        <v>0.003258856669252524</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003470061861082516</v>
+        <v>0.004386542903852373</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09582516494179801</v>
+        <v>0.1377857098668147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.002179844753573647</v>
+        <v>0.003491410403463209</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001367257130214687</v>
+        <v>0.0004064373167183041</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6344214477040333</v>
+        <v>0.5012603033333732</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.3790421731496668</v>
+        <v>0.0009084284875597251</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.005002168979788587</v>
+        <v>0.002686370157089821</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001468979256594814</v>
+        <v>0.004296450649836434</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09371862757362323</v>
+        <v>0.1374544204837254</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.09589847232719688</v>
+        <v>0.002560600156046844</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004631850770728796</v>
+        <v>0.0003729480486248738</v>
       </c>
       <c r="D10" t="n">
-        <v>-223.1524664610776</v>
+        <v>-0.1052651513356016</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.001298540761604836</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09680630117738084</v>
+        <v>0.001822047848855892</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0949906434770129</v>
+        <v>0.003299152463237874</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.136523610236309</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04341201847968382</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005007995192187966</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-91.84604723745579</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.257930992196466e-243</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.04439357053005199</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.04243046642931565</v>
-      </c>
+        <v>0.03166761613159777</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.05248645384751306</v>
+        <v>0.16563062621186</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03312313646628779</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0004888101424343513</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-72.05160362472481</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.888148574326033e-293</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.03408118968720424</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.03216508324537134</v>
-      </c>
+        <v>0.05141865851770612</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.06277533586090908</v>
+        <v>0.1853816685979683</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03030271242742274</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0004878387327866796</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-65.58081945864086</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.234846397386062e-144</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.03125886171624388</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.02934656313860159</v>
-      </c>
+        <v>0.06629465559635828</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.06559575989977415</v>
+        <v>0.2002576656766205</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02468591595132525</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0004759464136464608</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-55.99702435031986</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.87728150131311e-54</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.02561875663858492</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.02375307526406557</v>
-      </c>
+        <v>0.07561233574567522</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.07121255637587164</v>
+        <v>0.2095753458259374</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02100196914947858</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0004722914869072872</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-48.27940255172481</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9.524340622430001e-65</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.02192764628616428</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.02007629201279287</v>
-      </c>
+        <v>0.07993400336874058</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.0748965031777183</v>
+        <v>0.2138970134490028</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02006256085700356</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0004703605107896804</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-47.22878225634076</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2.586097575809235e-18</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.02098445334147694</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.01914066837253018</v>
-      </c>
+        <v>0.08312154254651248</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.07583591147019332</v>
+        <v>0.2170845526267747</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01879881716756133</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0004726584291454472</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-44.40983608187513</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4.395707064705121e-46</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.01972521350458829</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.01787242083053436</v>
-      </c>
+        <v>0.08550494517261475</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.07709965515963554</v>
+        <v>0.219467955252877</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01690527419325701</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0004799855730107717</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-39.21297804459418</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.621215354178795e-28</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.01784603151463163</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.01596451687188239</v>
-      </c>
+        <v>-0.1339630100802622</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.07899319813393987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01361158505365191</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0004756077908618997</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-32.11026258708581</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4.700129516771056e-06</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.01454376203817228</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.01267940806913154</v>
-      </c>
+        <v>0.08849986857490591</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.08228688727354497</v>
+        <v>0.2224628786551681</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01043426412603559</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0004833044515606354</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-24.25188981364749</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.03184870715949651</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.01138152632631575</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.009487001925755415</v>
-      </c>
+        <v>0.08948279035261845</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.0854642082011613</v>
+        <v>0.2234458004328806</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.00771378512303368</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0004838903909951675</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-17.11654053446872</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.004164459081777166</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.008662195731921483</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.006765374514145878</v>
-      </c>
+        <v>0.09297902751141257</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.0881846872041632</v>
+        <v>0.2269420375916748</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.005899409255081439</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0004798083891054597</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-13.58127194258296</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.007118197532685656</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.006839819262211413</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.004958999247951466</v>
-      </c>
+        <v>0.09793274144675586</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.08999906307211544</v>
+        <v>0.2318957515270181</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.00511857925229642</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0004781181950267194</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-12.15442067550734</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.09334842533594039</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.006055676525775095</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.004181481978817746</v>
-      </c>
+        <v>0.1019809609697319</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.09077989307490046</v>
+        <v>0.2359439710499942</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004441948453822358</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0004839167496603478</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-10.64523979980288</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.04663294621268393</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.005390410716412069</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.003493486191232647</v>
-      </c>
+        <v>0.1034823025325012</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.09145652387337452</v>
+        <v>0.2374453126127634</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.00265646413883177</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.000476812160105868</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-6.665345732630927</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.1239164887065617</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.003591001608263063</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.001721926669400477</v>
-      </c>
+        <v>0.1027830185868579</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0.0932420081883651</v>
+        <v>0.2367460286671201</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1076347572136685</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.007092736678595848</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1009408750529.77</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.04155175138768536</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.09195335512629003</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1233161593010477</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2415977672939307</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1109137164339318</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.006749146623384097</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2284777582803.635</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.04460794697737658</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.09764091782720491</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1241865150406589</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.244876726514194</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1129175612228546</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.007135703157540869</v>
+      </c>
+      <c r="D28" t="n">
+        <v>460111367.4712924</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.07181700369970843</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.09885345316366526</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1269816692820437</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2468805713031168</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.001772872344983067</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.00143635683601294</v>
-      </c>
-      <c r="D26" t="n">
-        <v>5.51083243358654</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.07015064824724065</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.0543386315682689</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.003793182155717222</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.09767134467217994</v>
+      <c r="B29" t="n">
+        <v>0.003401389634984126</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0003494806085548954</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.3626918243395951</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0006514269279096891</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.00271054246487443</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.004092236805093865</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1373643997152463</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year12final.xlsx
+++ b/hourly datasets/cap_gen_year12final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1339630100802622</v>
+        <v>0.1065553440491354</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1043864451676607</v>
+        <v>0.1073220220072553</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2383494552479229</v>
+        <v>0.2138773660563906</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09206785914686813</v>
+        <v>0.09745546187922861</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2260308692271303</v>
+        <v>0.204010805928364</v>
       </c>
     </row>
     <row r="5">
@@ -536,25 +536,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06523070413562645</v>
+        <v>0.0749393821291105</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003371688560082255</v>
+        <v>0.00436756508448804</v>
       </c>
       <c r="D5" t="n">
-        <v>15.59212947034704</v>
+        <v>15.44556680224815</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0346063459715664</v>
+        <v>0.04111302272874021</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0585954664797213</v>
+        <v>0.06635261590659437</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07186594179153039</v>
+        <v>0.08352614835162808</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1991937142158887</v>
+        <v>0.1814947261782459</v>
       </c>
     </row>
     <row r="6">
@@ -564,25 +564,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08763240389957684</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0103892293552767</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.866346701215521</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.006831243935838892</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.06709519040243921</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.108169617396719</v>
-      </c>
+        <v>0.09806475263741116</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.2215954139798391</v>
+        <v>0.2046200966865465</v>
       </c>
     </row>
     <row r="7">
@@ -592,25 +582,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05083716370369227</v>
+        <v>0.06849091206033495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001206357970606904</v>
+        <v>0.002193589579185852</v>
       </c>
       <c r="D7" t="n">
-        <v>9.183134418856</v>
+        <v>12.79972308625368</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001746689095505594</v>
+        <v>0.0101215292127131</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04847150688749544</v>
+        <v>0.06418917671874072</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05320282051989046</v>
+        <v>0.07279264740192995</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1848001737839545</v>
+        <v>0.1750462561094703</v>
       </c>
     </row>
     <row r="8">
@@ -620,25 +610,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00382269978655249</v>
+        <v>0.04936317317196443</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002873949275871252</v>
+        <v>0.00179921928313599</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6195692099356119</v>
+        <v>9.896076031876499</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001369858442015861</v>
+        <v>0.008413415385360275</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003258856669252524</v>
+        <v>0.04583505793116451</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004386542903852373</v>
+        <v>0.05289128841276468</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1377857098668147</v>
+        <v>0.1559185172210998</v>
       </c>
     </row>
     <row r="9">
@@ -648,25 +638,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003491410403463209</v>
+        <v>0.04906988299974192</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0004064373167183041</v>
+        <v>0.002040482625462532</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5012603033333732</v>
+        <v>8.816382794271099</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0009084284875597251</v>
+        <v>0.005404991362256598</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002686370157089821</v>
+        <v>0.04506104525694603</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004296450649836434</v>
+        <v>0.0530787207425381</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1374544204837254</v>
+        <v>0.1556252270488773</v>
       </c>
     </row>
     <row r="10">
@@ -676,25 +666,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002560600156046844</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0003729480486248738</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.1052651513356016</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.001298540761604836</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.001822047848855892</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.003299152463237874</v>
-      </c>
+        <v>0.0499486100949007</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>0.136523610236309</v>
+        <v>0.1565039541440361</v>
       </c>
     </row>
     <row r="11">
@@ -704,7 +684,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03166761613159777</v>
+        <v>0.03272506821371153</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -712,7 +692,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.16563062621186</v>
+        <v>0.1392804122628469</v>
       </c>
     </row>
     <row r="12">
@@ -722,7 +702,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05141865851770612</v>
+        <v>0.05117392714232886</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -730,7 +710,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1853816685979683</v>
+        <v>0.1577292711914642</v>
       </c>
     </row>
     <row r="13">
@@ -740,7 +720,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06629465559635828</v>
+        <v>0.06807052312645226</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -748,7 +728,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.2002576656766205</v>
+        <v>0.1746258671755876</v>
       </c>
     </row>
     <row r="14">
@@ -758,7 +738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07561233574567522</v>
+        <v>0.07726985812573917</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -766,7 +746,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2095753458259374</v>
+        <v>0.1838252021748745</v>
       </c>
     </row>
     <row r="15">
@@ -776,7 +756,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07993400336874058</v>
+        <v>0.08069832767537394</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -784,7 +764,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2138970134490028</v>
+        <v>0.1872536717245093</v>
       </c>
     </row>
     <row r="16">
@@ -794,7 +774,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08312154254651248</v>
+        <v>0.08364221506605111</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -802,7 +782,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2170845526267747</v>
+        <v>0.1901975591151865</v>
       </c>
     </row>
     <row r="17">
@@ -812,7 +792,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08550494517261475</v>
+        <v>0.08505360333591129</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -820,7 +800,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.219467955252877</v>
+        <v>0.1916089473850466</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +810,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1339630100802622</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>-0.1065553440491354</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.008791455712720293</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-19.91194238406194</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.02634267328700736</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.1238444312855709</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.0892662568126998</v>
+      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
@@ -848,7 +838,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08849986857490591</v>
+        <v>0.08784019235903448</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -856,7 +846,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2224628786551681</v>
+        <v>0.1943955364081698</v>
       </c>
     </row>
     <row r="20">
@@ -866,7 +856,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.08948279035261845</v>
+        <v>0.08970924313437535</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -874,7 +864,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.2234458004328806</v>
+        <v>0.1962645871835107</v>
       </c>
     </row>
     <row r="21">
@@ -884,7 +874,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.09297902751141257</v>
+        <v>0.0922956501447684</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -892,7 +882,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.2269420375916748</v>
+        <v>0.1988509941939038</v>
       </c>
     </row>
     <row r="22">
@@ -902,7 +892,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.09793274144675586</v>
+        <v>0.09716712440069303</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -910,7 +900,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.2318957515270181</v>
+        <v>0.2037224684498284</v>
       </c>
     </row>
     <row r="23">
@@ -920,7 +910,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1019809609697319</v>
+        <v>0.1017495658785929</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -928,7 +918,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.2359439710499942</v>
+        <v>0.2083049099277283</v>
       </c>
     </row>
     <row r="24">
@@ -938,7 +928,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1034823025325012</v>
+        <v>0.1034528816909316</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -946,7 +936,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.2374453126127634</v>
+        <v>0.210008225740067</v>
       </c>
     </row>
     <row r="25">
@@ -956,15 +946,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1027830185868579</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>0.104008506325195</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.007342672136582881</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-464258035.6935544</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.04584449633748953</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.08957773653096798</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.118439276119421</v>
+      </c>
       <c r="H25" t="n">
-        <v>0.2367460286671201</v>
+        <v>0.2105638503743303</v>
       </c>
     </row>
     <row r="26">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1076347572136685</v>
+        <v>0.1085442960416581</v>
       </c>
       <c r="C26" t="n">
-        <v>0.007092736678595848</v>
+        <v>0.00716812687958495</v>
       </c>
       <c r="D26" t="n">
-        <v>1009408750529.77</v>
+        <v>522695178.3343856</v>
       </c>
       <c r="E26" t="n">
-        <v>0.04155175138768536</v>
+        <v>0.04100148843186305</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09195335512629003</v>
+        <v>0.0944616594714633</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1233161593010477</v>
+        <v>0.1226269326118539</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2415977672939307</v>
+        <v>0.2150996400907934</v>
       </c>
     </row>
     <row r="27">
@@ -1002,25 +1002,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1109137164339318</v>
+        <v>0.1121338848236663</v>
       </c>
       <c r="C27" t="n">
-        <v>0.006749146623384097</v>
+        <v>0.007141991707207579</v>
       </c>
       <c r="D27" t="n">
-        <v>2284777582803.635</v>
+        <v>25.0630326955693</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04460794697737658</v>
+        <v>0.04587700108548545</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09764091782720491</v>
+        <v>0.09810172851232626</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1241865150406589</v>
+        <v>0.1261660411350068</v>
       </c>
       <c r="H27" t="n">
-        <v>0.244876726514194</v>
+        <v>0.2186892288728016</v>
       </c>
     </row>
     <row r="28">
@@ -1030,25 +1030,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1129175612228546</v>
+        <v>0.1139243743438063</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007135703157540869</v>
+        <v>0.00743520263279721</v>
       </c>
       <c r="D28" t="n">
-        <v>460111367.4712924</v>
+        <v>431441629.5995058</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07181700369970843</v>
+        <v>0.07278981944472064</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09885345316366526</v>
+        <v>0.09931268336114869</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1269816692820437</v>
+        <v>0.1285360653264641</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2468805713031168</v>
+        <v>0.2204797183929417</v>
       </c>
     </row>
     <row r="29">
@@ -1058,25 +1058,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.003401389634984126</v>
+        <v>0.05238793070310608</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0003494806085548954</v>
+        <v>0.001886243714204461</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3626918243395951</v>
+        <v>10.29448615874023</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0006514269279096891</v>
+        <v>0.006560674141669946</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00271054246487443</v>
+        <v>0.04868089229358762</v>
       </c>
       <c r="G29" t="n">
-        <v>0.004092236805093865</v>
+        <v>0.05609496911262121</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1373643997152463</v>
+        <v>0.1589432747522414</v>
       </c>
     </row>
   </sheetData>
